--- a/routes/uploads/printtemplates/8_longfine_order.xlsx
+++ b/routes/uploads/printtemplates/8_longfine_order.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gavin/Desktop/as1_2/routes/uploads/printtemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E45F3-B786-DF4C-8A2B-7C40E8DA1F8B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066106C6-BBB7-C246-A234-CC25ADD23643}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="26460" windowWidth="31320" windowHeight="27080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="0" windowWidth="27400" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$50</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$15</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t xml:space="preserve">Phone:  </t>
   </si>
@@ -63,14 +67,6 @@
     <t>${orderorderno}</t>
   </si>
   <si>
-    <t>${custname}
-Att: ${custcontact1}
-${custaddress1}, ${custaddress2},
-${custcity}, ${custstate}, ${custpostcode}
-${custcountry}
-${custphone1}</t>
-  </si>
-  <si>
     <t>Order Date:</t>
   </si>
   <si>
@@ -158,9 +154,6 @@
     <t>Balance Due</t>
   </si>
   <si>
-    <t>${ordergrandtotal}</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -170,14 +163,6 @@
     <t>AUD</t>
   </si>
   <si>
-    <t>${custname}
-Att: ${custcontact2}
-${custshipaddress1}, ${custshipaddress2}
-${custshipcity}, ${custshipstate}, ${custshippostcode}
-${custshipcountry}
-${custphone1}</t>
-  </si>
-  <si>
     <t>${table:product.qty}</t>
   </si>
   <si>
@@ -202,22 +187,46 @@
     <t>${table:product.expressfee}</t>
   </si>
   <si>
+    <t>${orderincgst}</t>
+  </si>
+  <si>
+    <t>orders@longfine.com.au</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Supplies</t>
+  </si>
+  <si>
+    <t>Longfine</t>
+  </si>
+  <si>
+    <t>${custname}</t>
+  </si>
+  <si>
+    <t>Att: ${custcontact1}</t>
+  </si>
+  <si>
+    <t>${custaddress1}, ${custaddress2},</t>
+  </si>
+  <si>
+    <t>${custcity}, ${custstate}, ${custpostcode}</t>
+  </si>
+  <si>
+    <t>${custcountry}</t>
+  </si>
+  <si>
+    <t>${custphone1}</t>
+  </si>
+  <si>
+    <t>Att: ${custcontact}</t>
+  </si>
+  <si>
     <t>${table:product.subtotalgst}</t>
   </si>
   <si>
-    <t>${orderincgst}</t>
-  </si>
-  <si>
-    <t>orders@longfine.com.au</t>
-  </si>
-  <si>
-    <t>Hospitality</t>
-  </si>
-  <si>
-    <t>Supplies</t>
-  </si>
-  <si>
-    <t>Longfine</t>
+    <t xml:space="preserve"> ${ordergrandtotal} </t>
   </si>
 </sst>
 </file>
@@ -229,7 +238,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-&quot;$&quot;* #,##0.000_-;\-&quot;$&quot;* #,##0.000_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +322,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -346,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -497,6 +525,136 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -504,7 +662,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -602,9 +760,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -614,206 +769,246 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -833,10 +1028,16 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1211,23 +1412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43:J44"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
     <col min="2" max="7" width="9.33203125" customWidth="1"/>
     <col min="8" max="13" width="10.6640625" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
@@ -1252,78 +1451,78 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="119" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
       <c r="G2" s="1"/>
       <c r="H2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
       <c r="O2" s="1"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="109" t="s">
+      <c r="Q2" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
     </row>
     <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="105"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="107"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="1"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
     </row>
     <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
-      <c r="B4" s="105"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
+      <c r="A4" s="118"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="111" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="108" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
+      <c r="I4" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="121"/>
+      <c r="N4" s="121"/>
       <c r="O4" s="1"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="1"/>
@@ -1331,18 +1530,18 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="105"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="1"/>
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="110"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -1353,17 +1552,17 @@
       <c r="R5" s="2"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
       <c r="G6" s="1"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1374,210 +1573,230 @@
       <c r="R6" s="2"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+    <row r="7" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="104" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="104"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="104" t="s">
+      <c r="G7" s="116"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="103" t="s">
+      <c r="O7" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="103"/>
-      <c r="Q7" s="103"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
       <c r="R7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
+    <row r="8" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="92"/>
       <c r="O8" s="1"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="86"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-      <c r="O9" s="103" t="s">
+    <row r="9" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="113" t="s">
+        <v>10</v>
+      </c>
+      <c r="P9" s="113"/>
+      <c r="Q9" s="113"/>
+      <c r="R9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="103"/>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="86"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="103" t="s">
+      <c r="P10" s="113"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="103"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="86"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="103" t="s">
+      <c r="P11" s="113"/>
+      <c r="Q11" s="114"/>
+      <c r="R11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P11" s="103"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="86"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="101" t="s">
+      <c r="L12" s="93"/>
+      <c r="M12" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101" t="s">
+      <c r="N12" s="93"/>
+      <c r="O12" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="103" t="s">
+      <c r="P12" s="113"/>
+      <c r="Q12" s="114"/>
+      <c r="R12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="102"/>
+      <c r="K13" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="86"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="101" t="s">
+      <c r="L13" s="93"/>
+      <c r="M13" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="N13" s="101"/>
+      <c r="N13" s="93"/>
       <c r="O13" s="1"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="99"/>
-      <c r="K14" s="101" t="s">
+    <row r="14" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="101"/>
-      <c r="M14" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="101"/>
+      <c r="N14" s="93"/>
       <c r="O14" s="1"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="1"/>
@@ -1586,355 +1805,820 @@
     </row>
     <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="103" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="79" t="s">
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="10" t="s">
+      <c r="O15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O15" s="10" t="s">
+      <c r="P15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="Q15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="Q15" s="10" t="s">
+      <c r="R15" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R15" s="10" t="s">
+      <c r="S15" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="91"/>
+      <c r="M16" s="91"/>
+      <c r="N16" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="O16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82" t="s">
+      <c r="P16" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="R16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="P16" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q16" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="49"/>
+    </row>
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="17"/>
+    </row>
+    <row r="19" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="49"/>
+    </row>
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+    </row>
+    <row r="21" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="49"/>
+    </row>
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17"/>
+    </row>
+    <row r="23" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="41"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="49"/>
+    </row>
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="17"/>
+    </row>
+    <row r="25" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="41"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="49"/>
+    </row>
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="17"/>
+    </row>
+    <row r="27" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="49"/>
+    </row>
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="17"/>
+    </row>
+    <row r="29" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="45"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="49"/>
+    </row>
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="17"/>
+    </row>
+    <row r="31" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="41"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="49"/>
+    </row>
+    <row r="32" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="17"/>
+    </row>
+    <row r="33" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="41"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="44"/>
+      <c r="N33" s="45"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="49"/>
+    </row>
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="17"/>
+    </row>
+    <row r="35" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="44"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="47"/>
+      <c r="Q35" s="47"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="49"/>
+    </row>
+    <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="40"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="17"/>
+    </row>
+    <row r="37" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="41"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="45"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="47"/>
+      <c r="Q37" s="47"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="49"/>
+    </row>
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="40"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="15"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="17"/>
+    </row>
+    <row r="39" spans="1:19" s="50" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="41"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="49"/>
+    </row>
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="17"/>
+    </row>
+    <row r="41" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="45"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="49"/>
+    </row>
+    <row r="42" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="18"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="90"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="90"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="22"/>
+    </row>
+    <row r="43" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="24"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="R43" s="58"/>
+      <c r="S43" s="59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="53"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="61"/>
+      <c r="P44" s="61"/>
+      <c r="Q44" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="R44" s="62"/>
+      <c r="S44" s="63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="28"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="53"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="R45" s="62"/>
+      <c r="S45" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="S16" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="22"/>
-    </row>
-    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="68" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" s="70"/>
-    </row>
-    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="S19" s="77"/>
-    </row>
-    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="75" t="s">
+    </row>
+    <row r="46" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="28"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="34"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="65"/>
+    </row>
+    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="28"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="53"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="S20" s="77"/>
-    </row>
-    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="39" t="s">
+      <c r="R47" s="64"/>
+      <c r="S47" s="65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="28"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="69"/>
+      <c r="M48" s="69"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="61"/>
+      <c r="P48" s="61"/>
+      <c r="Q48" s="61"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="65"/>
+    </row>
+    <row r="49" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="28"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="53"/>
+      <c r="J49" s="67"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="74"/>
+      <c r="P49" s="75"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="77"/>
+    </row>
+    <row r="50" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="35"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="81"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="82"/>
+      <c r="N50" s="83"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40" t="s">
+      <c r="R50" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="S21" s="41"/>
-    </row>
-    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="41"/>
-    </row>
-    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="41"/>
-    </row>
-    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="57" t="s">
+      <c r="S50" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="P24" s="58"/>
-      <c r="Q24" s="58"/>
-      <c r="R24" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="S24" s="66" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="36"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="67"/>
-    </row>
-    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="46">
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="K7:M7"/>
@@ -1948,57 +2632,46 @@
     <mergeCell ref="I4:K4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="I5:J5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="O9:Q9"/>
     <mergeCell ref="O10:Q10"/>
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="H15:M15"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:M42"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:M16"/>
-    <mergeCell ref="A8:E14"/>
-    <mergeCell ref="F8:J14"/>
     <mergeCell ref="K8:N11"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="O18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="B19:G25"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:Q19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="O20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="N28:S28"/>
-    <mergeCell ref="O21:Q23"/>
-    <mergeCell ref="R21:S23"/>
-    <mergeCell ref="J22:N22"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:J25"/>
-    <mergeCell ref="K23:N25"/>
-    <mergeCell ref="O24:Q25"/>
-    <mergeCell ref="R24:R25"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.19685039370078741"/>
-  <pageSetup scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageMargins left="0.23622047244094499" right="0.23622047244094499" top="0.65748031500000004" bottom="0.65748031500000004" header="0.31496062992126" footer="0.196850393700787"/>
+  <pageSetup scale="57" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;LFor The Paper Cup Company's General Terms and Conditions visit: www.tpccau.com/terms.pdf&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
